--- a/biology/Médecine/Sémustine/Sémustine.xlsx
+++ b/biology/Médecine/Sémustine/Sémustine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>S%C3%A9mustine</t>
+          <t>Sémustine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La sémustine est un composé organique de la famille des nitrosourées, anciennement utilisé en chimiothérapie[4]. Elle est structurellement similaire à la lomustine, la différence étant le groupe méthyle supplémentaire sur le cyclohexane. 
-Il a été retiré du marché du fait de ses effets cancérigènes, le CIRC l'ayant classé dans les cancérogènes du groupe 1[5].
+La sémustine est un composé organique de la famille des nitrosourées, anciennement utilisé en chimiothérapie. Elle est structurellement similaire à la lomustine, la différence étant le groupe méthyle supplémentaire sur le cyclohexane. 
+Il a été retiré du marché du fait de ses effets cancérigènes, le CIRC l'ayant classé dans les cancérogènes du groupe 1.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>S%C3%A9mustine</t>
+          <t>Sémustine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,11 +525,48 @@
           <t>Sécurité</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le TDLo pour les êtres humains adultes se situe entre 6 et 90 mg/kg (oral), celui des enfants vaut 37 950 mg/kg/2 ans (oral)[3].
-LDLo[3]
-5 550 mg/kg/30 semaines (enfant, oral)
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le TDLo pour les êtres humains adultes se situe entre 6 et 90 mg/kg (oral), celui des enfants vaut 37 950 mg/kg/2 ans (oral).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Sémustine</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/S%C3%A9mustine</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Sécurité</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>LDLo[3]</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>5 550 mg/kg/30 semaines (enfant, oral)
 25 mg/kg (chien, oral)
 14 mg/kg (chien, i.v.)
 100 mg/kg (singe, oral)
